--- a/data/trans_orig/P2A_psíq_R-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P2A_psíq_R-Clase-trans_orig.xlsx
@@ -747,7 +747,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>6922</v>
+        <v>6235</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.004261110146759419</v>
@@ -756,7 +756,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01460958962695921</v>
+        <v>0.01316017506881799</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>5</v>
@@ -765,19 +765,19 @@
         <v>5358</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>1998</v>
+        <v>1968</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>11909</v>
+        <v>11968</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01747066037196965</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.006516356810860061</v>
+        <v>0.006417530744379176</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.03883185802412237</v>
+        <v>0.03902521591466912</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>7</v>
@@ -786,19 +786,19 @@
         <v>7377</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>3046</v>
+        <v>3038</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>13900</v>
+        <v>14798</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.009451800811647986</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.003902985572498751</v>
+        <v>0.003892957270216765</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01781036990080593</v>
+        <v>0.01896120635897783</v>
       </c>
     </row>
     <row r="5">
@@ -815,7 +815,7 @@
         <v>471757</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>466854</v>
+        <v>467541</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>473776</v>
@@ -824,7 +824,7 @@
         <v>0.9957388898532405</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9853904103730404</v>
+        <v>0.9868398249311819</v>
       </c>
       <c r="I5" s="6" t="n">
         <v>1</v>
@@ -836,19 +836,19 @@
         <v>301322</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>294771</v>
+        <v>294712</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>304682</v>
+        <v>304712</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9825293396280304</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9611681419758775</v>
+        <v>0.9609747840853309</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.99348364318914</v>
+        <v>0.9935824692556208</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>746</v>
@@ -857,19 +857,19 @@
         <v>773080</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>766557</v>
+        <v>765659</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>777411</v>
+        <v>777419</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.990548199188352</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9821896300991941</v>
+        <v>0.9810387936410222</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9960970144275013</v>
+        <v>0.9961070427297832</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>3320</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>820</v>
+        <v>815</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>9281</v>
+        <v>9517</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.009046972186494195</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.002234619172709232</v>
+        <v>0.002220451952547508</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.02529411021991142</v>
+        <v>0.025936778817918</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>3</v>
@@ -982,19 +982,19 @@
         <v>2930</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>941</v>
+        <v>935</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>7857</v>
+        <v>7769</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.007879466852875109</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.002530893285834226</v>
+        <v>0.00251537826853886</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.02112975069602942</v>
+        <v>0.02089247523434094</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>6</v>
@@ -1003,19 +1003,19 @@
         <v>6250</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>2461</v>
+        <v>2531</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>13580</v>
+        <v>13473</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.008459323569317582</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.003330750790985327</v>
+        <v>0.003425882778855795</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.01838094683128329</v>
+        <v>0.0182366454494989</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>363614</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>357653</v>
+        <v>357417</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>366114</v>
+        <v>366119</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9909530278135058</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.974705889780089</v>
+        <v>0.9740632211820814</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9977653808272907</v>
+        <v>0.9977795480474525</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>360</v>
@@ -1053,19 +1053,19 @@
         <v>368935</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>364008</v>
+        <v>364096</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>370924</v>
+        <v>370930</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9921205331471249</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9788702493039704</v>
+        <v>0.9791075247656591</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9974691067141658</v>
+        <v>0.9974846217314611</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>707</v>
@@ -1074,19 +1074,19 @@
         <v>732549</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>725219</v>
+        <v>725326</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>736338</v>
+        <v>736268</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9915406764306824</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9816190531687167</v>
+        <v>0.981763354550501</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9966692492090147</v>
+        <v>0.9965741172211442</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>2928</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>923</v>
+        <v>912</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>8907</v>
+        <v>7780</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.005398984019642818</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.001701475485784022</v>
+        <v>0.001681573180648623</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01642248973924256</v>
+        <v>0.01434314229549747</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>2</v>
@@ -1202,7 +1202,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>5887</v>
+        <v>5907</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01152614793792757</v>
@@ -1211,7 +1211,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.03508839711132595</v>
+        <v>0.03520772105678782</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>5</v>
@@ -1220,19 +1220,19 @@
         <v>4862</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1889</v>
+        <v>1903</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>10906</v>
+        <v>11250</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.006846561078756635</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.002659543445986086</v>
+        <v>0.002679197071309775</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01535678009614144</v>
+        <v>0.01584170870465259</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>539461</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>533482</v>
+        <v>534609</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>541466</v>
+        <v>541477</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9946010159803572</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9835775102607576</v>
+        <v>0.9856568577045025</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.998298524514216</v>
+        <v>0.9983184268193515</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>162</v>
@@ -1270,7 +1270,7 @@
         <v>165848</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>161895</v>
+        <v>161875</v>
       </c>
       <c r="M11" s="5" t="n">
         <v>167782</v>
@@ -1279,7 +1279,7 @@
         <v>0.9884738520620724</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9649116028886741</v>
+        <v>0.9647922789432123</v>
       </c>
       <c r="P11" s="6" t="n">
         <v>1</v>
@@ -1291,19 +1291,19 @@
         <v>705309</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>699265</v>
+        <v>698921</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>708282</v>
+        <v>708268</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9931534389212434</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9846432199038587</v>
+        <v>0.9841582912953477</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9973404565540139</v>
+        <v>0.9973208029286902</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>11875</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>6282</v>
+        <v>6490</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>20257</v>
+        <v>21193</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.009589793126709337</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.005073129006763251</v>
+        <v>0.005240849989360285</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.01635801902855224</v>
+        <v>0.01711387332374364</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>10</v>
@@ -1416,19 +1416,19 @@
         <v>10136</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>4953</v>
+        <v>5382</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>17440</v>
+        <v>18697</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01419052444776418</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.006933723477065881</v>
+        <v>0.007534866294969525</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.0244153911245534</v>
+        <v>0.02617550875485353</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>21</v>
@@ -1437,19 +1437,19 @@
         <v>22011</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>13596</v>
+        <v>13827</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>32711</v>
+        <v>34414</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.0112727807761852</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.006963084988920565</v>
+        <v>0.007081238252320624</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.01675214831290328</v>
+        <v>0.0176244639711941</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>1226459</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1218077</v>
+        <v>1217141</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1232052</v>
+        <v>1231844</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9904102068732906</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9836419809714474</v>
+        <v>0.9828861266762564</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9949268709932364</v>
+        <v>0.9947591500106396</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>684</v>
@@ -1487,19 +1487,19 @@
         <v>704149</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>696845</v>
+        <v>695588</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>709332</v>
+        <v>708903</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9858094755522359</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9755846088754466</v>
+        <v>0.9738244912451465</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9930662765229341</v>
+        <v>0.9924651337050305</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1897</v>
@@ -1508,19 +1508,19 @@
         <v>1930609</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1919909</v>
+        <v>1918206</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1939024</v>
+        <v>1938793</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9887272192238148</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9832478516870967</v>
+        <v>0.9823755360288058</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9930369150110794</v>
+        <v>0.9929187617476795</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>2801</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>815</v>
+        <v>818</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>7516</v>
+        <v>7568</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.007989460412186808</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.002323968490816435</v>
+        <v>0.00233397549553753</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02144105012213648</v>
+        <v>0.02158910743809357</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>4</v>
@@ -1633,19 +1633,19 @@
         <v>3139</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>8235</v>
+        <v>8937</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.005518579063627176</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.001573425760042933</v>
+        <v>0.001575401834347163</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.01447890905220994</v>
+        <v>0.0157136692577968</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>7</v>
@@ -1654,19 +1654,19 @@
         <v>5939</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>2066</v>
+        <v>2051</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>11895</v>
+        <v>11764</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.006460789199449564</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.002247309480754487</v>
+        <v>0.002230787429134056</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01293936154882144</v>
+        <v>0.01279632436288944</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>347754</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>343039</v>
+        <v>342987</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>349740</v>
+        <v>349737</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9920105395878132</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9785589498778637</v>
+        <v>0.9784108925619065</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9976760315091836</v>
+        <v>0.9976660245044625</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>535</v>
@@ -1704,19 +1704,19 @@
         <v>565613</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>560517</v>
+        <v>559815</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>567857</v>
+        <v>567856</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9944814209363728</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9855210909477896</v>
+        <v>0.9842863307422031</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9984265742399571</v>
+        <v>0.9984245981656528</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>872</v>
@@ -1725,19 +1725,19 @@
         <v>913368</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>907412</v>
+        <v>907543</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>917241</v>
+        <v>917256</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9935392108005504</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9870606384511786</v>
+        <v>0.9872036756371106</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9977526905192455</v>
+        <v>0.9977692125708659</v>
       </c>
     </row>
     <row r="18">
@@ -1829,19 +1829,19 @@
         <v>6798</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>2449</v>
+        <v>3040</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>14730</v>
+        <v>14140</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.02279641040611673</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.008214177082033199</v>
+        <v>0.01019314842566462</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.04939725039255013</v>
+        <v>0.04741918636948678</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>15</v>
@@ -1850,19 +1850,19 @@
         <v>15979</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>9469</v>
+        <v>9020</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>25723</v>
+        <v>27033</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.0127958382756072</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.007583080940548184</v>
+        <v>0.007222898772099824</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.02059864337241274</v>
+        <v>0.02164749551061543</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>21</v>
@@ -1871,19 +1871,19 @@
         <v>22777</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>14077</v>
+        <v>14340</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>34196</v>
+        <v>34198</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.01472360329326702</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.009099894282340773</v>
+        <v>0.009269534130273446</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.02210525720063675</v>
+        <v>0.02210645475537227</v>
       </c>
     </row>
     <row r="20">
@@ -1900,19 +1900,19 @@
         <v>291403</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>283471</v>
+        <v>284061</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>295752</v>
+        <v>295161</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9772035895938833</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9506027496074495</v>
+        <v>0.9525808136305133</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9917858229179625</v>
+        <v>0.9898068515743355</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>1223</v>
@@ -1921,19 +1921,19 @@
         <v>1232781</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1223037</v>
+        <v>1221727</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>1239291</v>
+        <v>1239740</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9872041617243928</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9794013566275868</v>
+        <v>0.9783525044893862</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9924169190594515</v>
+        <v>0.9927771012279002</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1523</v>
@@ -1942,19 +1942,19 @@
         <v>1524183</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1512764</v>
+        <v>1512762</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1532883</v>
+        <v>1532620</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9852763967067329</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9778947427993633</v>
+        <v>0.9778935452446277</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9909001057176592</v>
+        <v>0.9907304658697266</v>
       </c>
     </row>
     <row r="21">
@@ -2046,19 +2046,19 @@
         <v>29741</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>19321</v>
+        <v>20459</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>42350</v>
+        <v>43801</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.009094525737822443</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.005908125732351633</v>
+        <v>0.006256303907932156</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.01295043770571711</v>
+        <v>0.01339412654604847</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>39</v>
@@ -2067,19 +2067,19 @@
         <v>39476</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>28819</v>
+        <v>28306</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>54242</v>
+        <v>53785</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.01168565680842645</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.008531062824124216</v>
+        <v>0.008379147838330889</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.01605676570846183</v>
+        <v>0.01592168677606871</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>67</v>
@@ -2088,19 +2088,19 @@
         <v>69216</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>53828</v>
+        <v>52958</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>85609</v>
+        <v>87421</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.01041112451529879</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.008096419616120882</v>
+        <v>0.007965603391215225</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.01287678655790302</v>
+        <v>0.01314933177437903</v>
       </c>
     </row>
     <row r="23">
@@ -2117,19 +2117,19 @@
         <v>3240449</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3227840</v>
+        <v>3226389</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3250869</v>
+        <v>3249731</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9909054742621776</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9870495622942829</v>
+        <v>0.9866058734539515</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9940918742676484</v>
+        <v>0.9937436960920677</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>3257</v>
@@ -2138,19 +2138,19 @@
         <v>3338648</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>3323882</v>
+        <v>3324339</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>3349305</v>
+        <v>3349818</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9883143431915735</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9839432342915381</v>
+        <v>0.9840783132239312</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9914689371758758</v>
+        <v>0.9916208521616691</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>6436</v>
@@ -2159,19 +2159,19 @@
         <v>6579098</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>6562705</v>
+        <v>6560893</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>6594486</v>
+        <v>6595356</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9895888754847012</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.987123213442097</v>
+        <v>0.986850668225621</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.991903580383879</v>
+        <v>0.9920343966087847</v>
       </c>
     </row>
     <row r="24">
@@ -2505,19 +2505,19 @@
         <v>5270</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>2040</v>
+        <v>2047</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>11775</v>
+        <v>11805</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01205383149818239</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.004666199427883377</v>
+        <v>0.004681611490077201</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02693176027703067</v>
+        <v>0.02700147039361488</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>7</v>
@@ -2526,19 +2526,19 @@
         <v>7867</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>3671</v>
+        <v>3158</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>16314</v>
+        <v>16104</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02501793622849562</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01167455102842161</v>
+        <v>0.01004304974911201</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.05187939736135185</v>
+        <v>0.05121194301429371</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>12</v>
@@ -2547,19 +2547,19 @@
         <v>13137</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>6913</v>
+        <v>7141</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>21809</v>
+        <v>22013</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01747728170829001</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.009196528287839446</v>
+        <v>0.00950073399501994</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.0290139642574483</v>
+        <v>0.02928570121879264</v>
       </c>
     </row>
     <row r="5">
@@ -2576,19 +2576,19 @@
         <v>431941</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>425436</v>
+        <v>425406</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>435171</v>
+        <v>435164</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9879461685018176</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9730682397229693</v>
+        <v>0.9729985296063851</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9953338005721166</v>
+        <v>0.9953183885099228</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>276</v>
@@ -2597,19 +2597,19 @@
         <v>306587</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>298140</v>
+        <v>298350</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>310783</v>
+        <v>311296</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9749820637715044</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9481206026386481</v>
+        <v>0.948788056985706</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9883254489715783</v>
+        <v>0.9899569502508878</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>675</v>
@@ -2618,19 +2618,19 @@
         <v>738528</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>729856</v>
+        <v>729652</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>744752</v>
+        <v>744524</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.98252271829171</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9709860357425517</v>
+        <v>0.970714298781207</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9908034717121605</v>
+        <v>0.99049926600498</v>
       </c>
     </row>
     <row r="6">
@@ -2722,19 +2722,19 @@
         <v>10035</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>4224</v>
+        <v>4037</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>20581</v>
+        <v>20770</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.0239604410576834</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01008624593379404</v>
+        <v>0.009639102166560222</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.049142665656028</v>
+        <v>0.04959396309328466</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>2</v>
@@ -2746,7 +2746,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>7298</v>
+        <v>7451</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.00620418465768221</v>
@@ -2755,7 +2755,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.02159171044177555</v>
+        <v>0.02204462745175997</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>9</v>
@@ -2764,19 +2764,19 @@
         <v>12132</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>5911</v>
+        <v>5712</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>23356</v>
+        <v>23822</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01603001314833365</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.007811055471440694</v>
+        <v>0.007547098351378168</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.03086128582509964</v>
+        <v>0.03147758762787855</v>
       </c>
     </row>
     <row r="8">
@@ -2793,19 +2793,19 @@
         <v>408762</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>398216</v>
+        <v>398027</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>414573</v>
+        <v>414760</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9760395589423166</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9508573343439726</v>
+        <v>0.9504060369067153</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.989913754066206</v>
+        <v>0.9903608978334399</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>303</v>
@@ -2814,7 +2814,7 @@
         <v>335914</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>330713</v>
+        <v>330560</v>
       </c>
       <c r="M8" s="5" t="n">
         <v>338011</v>
@@ -2823,7 +2823,7 @@
         <v>0.9937958153423178</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9784082895582241</v>
+        <v>0.9779553725482397</v>
       </c>
       <c r="P8" s="6" t="n">
         <v>1</v>
@@ -2835,19 +2835,19 @@
         <v>744676</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>733452</v>
+        <v>732986</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>750897</v>
+        <v>751096</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9839699868516664</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9691387141749001</v>
+        <v>0.9685224123721212</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9921889445285592</v>
+        <v>0.9924529016486218</v>
       </c>
     </row>
     <row r="9">
@@ -2939,19 +2939,19 @@
         <v>16977</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>9303</v>
+        <v>9276</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>27834</v>
+        <v>29361</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02697232696197149</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01478021379632457</v>
+        <v>0.01473727271511628</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.04422127168051019</v>
+        <v>0.04664832120991204</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>3</v>
@@ -2960,19 +2960,19 @@
         <v>2943</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>952</v>
+        <v>943</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>8917</v>
+        <v>7905</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01131270957090373</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.003659606477346192</v>
+        <v>0.003623824694576072</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.03428034037624869</v>
+        <v>0.03039045244370793</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>17</v>
@@ -2981,19 +2981,19 @@
         <v>19920</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>11701</v>
+        <v>11409</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>31157</v>
+        <v>31103</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.02239298495935617</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01315413256971178</v>
+        <v>0.01282522641896777</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.03502537950233123</v>
+        <v>0.03496468210538967</v>
       </c>
     </row>
     <row r="11">
@@ -3010,19 +3010,19 @@
         <v>612438</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>601581</v>
+        <v>600054</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>620112</v>
+        <v>620139</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9730276730380285</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9557787283194897</v>
+        <v>0.953351678790088</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9852197862036755</v>
+        <v>0.9852627272848837</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>241</v>
@@ -3031,19 +3031,19 @@
         <v>257186</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>251212</v>
+        <v>252224</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>259177</v>
+        <v>259186</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9886872904290963</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9657196596237513</v>
+        <v>0.9696095475562919</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9963403935226538</v>
+        <v>0.996376175305424</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>818</v>
@@ -3052,19 +3052,19 @@
         <v>869624</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>858387</v>
+        <v>858441</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>877843</v>
+        <v>878135</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9776070150406438</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9649746204976689</v>
+        <v>0.9650353178946104</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9868458674302883</v>
+        <v>0.9871747735810322</v>
       </c>
     </row>
     <row r="12">
@@ -3156,19 +3156,19 @@
         <v>13456</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>7905</v>
+        <v>7397</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>24155</v>
+        <v>21932</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01160966498316906</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.006820132082297094</v>
+        <v>0.006381833673260899</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.02084139538957454</v>
+        <v>0.01892345872610755</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>16</v>
@@ -3177,19 +3177,19 @@
         <v>18205</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>10850</v>
+        <v>10466</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>29495</v>
+        <v>29139</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.02374626912386911</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01415265847001899</v>
+        <v>0.01365134394437046</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.03847174343394184</v>
+        <v>0.03800799217836702</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>29</v>
@@ -3198,19 +3198,19 @@
         <v>31661</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>22250</v>
+        <v>21235</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>45247</v>
+        <v>44611</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.0164415592710923</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01155442471061963</v>
+        <v>0.01102743537710273</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.02349699077151934</v>
+        <v>0.02316650145892927</v>
       </c>
     </row>
     <row r="14">
@@ -3227,19 +3227,19 @@
         <v>1145553</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1134854</v>
+        <v>1137077</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1151104</v>
+        <v>1151612</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9883903350168309</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9791586046104241</v>
+        <v>0.9810765412738923</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9931798679177029</v>
+        <v>0.993618166326739</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>695</v>
@@ -3248,19 +3248,19 @@
         <v>748452</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>737162</v>
+        <v>737518</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>755807</v>
+        <v>756191</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9762537308761309</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9615282565660582</v>
+        <v>0.9619920078216331</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9858473415299811</v>
+        <v>0.9863486560556296</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1765</v>
@@ -3269,19 +3269,19 @@
         <v>1894006</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1880420</v>
+        <v>1881056</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1903417</v>
+        <v>1904432</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9835584407289077</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9765030092284808</v>
+        <v>0.9768334985410707</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9884455752893809</v>
+        <v>0.9889725646228974</v>
       </c>
     </row>
     <row r="15">
@@ -3373,19 +3373,19 @@
         <v>6963</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>2900</v>
+        <v>3025</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>13341</v>
+        <v>14009</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01363653045625379</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.005680454938206621</v>
+        <v>0.005924448189764814</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02612873117673568</v>
+        <v>0.02743700337661829</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>21</v>
@@ -3394,19 +3394,19 @@
         <v>22088</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>14636</v>
+        <v>13482</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>33342</v>
+        <v>33464</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.02900503428271483</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01921883217877809</v>
+        <v>0.01770340647112635</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.04378301712595357</v>
+        <v>0.04394335914040689</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>28</v>
@@ -3415,19 +3415,19 @@
         <v>29051</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>19793</v>
+        <v>19696</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>40673</v>
+        <v>42918</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.0228365019546993</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01555897228189002</v>
+        <v>0.01548314569262891</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.03197301045677062</v>
+        <v>0.03373759813700471</v>
       </c>
     </row>
     <row r="17">
@@ -3444,19 +3444,19 @@
         <v>503633</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>497255</v>
+        <v>496587</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>507696</v>
+        <v>507571</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9863634695437462</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.973871268823265</v>
+        <v>0.972562996623382</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9943195450617934</v>
+        <v>0.9940755518102352</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>682</v>
@@ -3465,19 +3465,19 @@
         <v>739434</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>728180</v>
+        <v>728058</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>746886</v>
+        <v>748040</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9709949657172852</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9562169828740467</v>
+        <v>0.9560566408595933</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9807811678212219</v>
+        <v>0.9822965935288737</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1162</v>
@@ -3486,19 +3486,19 @@
         <v>1243067</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1231445</v>
+        <v>1229200</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1252325</v>
+        <v>1252422</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9771634980453007</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9680269895432294</v>
+        <v>0.9662624018629953</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9844410277181099</v>
+        <v>0.9845168543073711</v>
       </c>
     </row>
     <row r="18">
@@ -3590,19 +3590,19 @@
         <v>10811</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>5523</v>
+        <v>5260</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>19737</v>
+        <v>21398</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.04050995899166204</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.02069564783207533</v>
+        <v>0.01970879040832242</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.07395274428702463</v>
+        <v>0.08017942165550079</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>20</v>
@@ -3611,19 +3611,19 @@
         <v>21015</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>12392</v>
+        <v>12867</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>31486</v>
+        <v>32017</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.01894325759614496</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.01117037267452143</v>
+        <v>0.01159898585254238</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.02838226736161637</v>
+        <v>0.02886085032736949</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>29</v>
@@ -3632,19 +3632,19 @@
         <v>31826</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>21195</v>
+        <v>21139</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>46641</v>
+        <v>44622</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.02312551601423092</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.01540051446404712</v>
+        <v>0.01536005455242605</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.03389046246214274</v>
+        <v>0.03242364572337678</v>
       </c>
     </row>
     <row r="20">
@@ -3661,19 +3661,19 @@
         <v>256071</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>247145</v>
+        <v>245484</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>261359</v>
+        <v>261622</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.959490041008338</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9260472557129755</v>
+        <v>0.9198205783444994</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9793043521679248</v>
+        <v>0.9802912095916776</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>1024</v>
@@ -3682,19 +3682,19 @@
         <v>1088336</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1077865</v>
+        <v>1077334</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>1096959</v>
+        <v>1096484</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.981056742403855</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9716177326383837</v>
+        <v>0.9711391496726305</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9888296273254787</v>
+        <v>0.9884010141474577</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1280</v>
@@ -3703,19 +3703,19 @@
         <v>1344407</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1329592</v>
+        <v>1331611</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1355038</v>
+        <v>1355094</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.976874483985769</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9661095375378571</v>
+        <v>0.9675763542766231</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9845994855359529</v>
+        <v>0.9846399454475738</v>
       </c>
     </row>
     <row r="21">
@@ -3807,19 +3807,19 @@
         <v>63511</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>47438</v>
+        <v>48396</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>82321</v>
+        <v>83189</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.01856017712168444</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.01386304468654506</v>
+        <v>0.01414283547008893</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.02405709685131233</v>
+        <v>0.02431081585589016</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>69</v>
@@ -3828,19 +3828,19 @@
         <v>74215</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>58097</v>
+        <v>59050</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>93450</v>
+        <v>93525</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.02090483783742158</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.01636472927721958</v>
+        <v>0.01663321575445561</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.02632293221878618</v>
+        <v>0.02634413459335971</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>124</v>
@@ -3849,19 +3849,19 @@
         <v>137726</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>112329</v>
+        <v>115293</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>162978</v>
+        <v>167402</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.01975406656327249</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.01611142387451083</v>
+        <v>0.01653652601204056</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.02337591057065593</v>
+        <v>0.02401048057411338</v>
       </c>
     </row>
     <row r="23">
@@ -3878,19 +3878,19 @@
         <v>3358399</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3339589</v>
+        <v>3338721</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3374472</v>
+        <v>3373514</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9814398228783155</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9759429031486877</v>
+        <v>0.9756891841441098</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9861369553134549</v>
+        <v>0.985857164529911</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>3221</v>
@@ -3899,19 +3899,19 @@
         <v>3475910</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>3456675</v>
+        <v>3456600</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>3492028</v>
+        <v>3491075</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9790951621625784</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9736770677812139</v>
+        <v>0.9736558654066403</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9836352707227805</v>
+        <v>0.9833667842455444</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>6371</v>
@@ -3920,19 +3920,19 @@
         <v>6834309</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>6809057</v>
+        <v>6804633</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>6859706</v>
+        <v>6856742</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9802459334367275</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9766240894293456</v>
+        <v>0.9759895194258866</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9838885761254892</v>
+        <v>0.9834634739879594</v>
       </c>
     </row>
     <row r="24">
@@ -4269,7 +4269,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>5057</v>
+        <v>6817</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.002531164832311931</v>
@@ -4278,7 +4278,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01178471092424301</v>
+        <v>0.01588716834819511</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>3</v>
@@ -4287,19 +4287,19 @@
         <v>3213</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>985</v>
+        <v>993</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>9147</v>
+        <v>8473</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.009257071102590733</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.002837089613949203</v>
+        <v>0.002861860755288341</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.02635675547037904</v>
+        <v>0.02441530883526432</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>4</v>
@@ -4308,19 +4308,19 @@
         <v>4299</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1206</v>
+        <v>1083</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>10512</v>
+        <v>10044</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.005538660862931901</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.00155411801888778</v>
+        <v>0.001395932987149043</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01354399176672739</v>
+        <v>0.01294085342044075</v>
       </c>
     </row>
     <row r="5">
@@ -4337,7 +4337,7 @@
         <v>428006</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>424035</v>
+        <v>422275</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>429092</v>
@@ -4346,7 +4346,7 @@
         <v>0.997468835167688</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9882152890757573</v>
+        <v>0.9841128316518044</v>
       </c>
       <c r="I5" s="6" t="n">
         <v>1</v>
@@ -4358,19 +4358,19 @@
         <v>343842</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>337908</v>
+        <v>338582</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>346070</v>
+        <v>346062</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9907429288974092</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9736432445296213</v>
+        <v>0.9755846911647357</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9971629103860509</v>
+        <v>0.9971381392447116</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>724</v>
@@ -4379,19 +4379,19 @@
         <v>771848</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>765635</v>
+        <v>766103</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>774941</v>
+        <v>775064</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9944613391370681</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9864560082332722</v>
+        <v>0.987059146579559</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9984458819811122</v>
+        <v>0.998604067012851</v>
       </c>
     </row>
     <row r="6">
@@ -4483,19 +4483,19 @@
         <v>3761</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>901</v>
+        <v>912</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>14092</v>
+        <v>11413</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.009971082024635909</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.002387814253246477</v>
+        <v>0.002418849354932888</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.03735734003170278</v>
+        <v>0.03025538907927532</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>5</v>
@@ -4504,19 +4504,19 @@
         <v>5809</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>2011</v>
+        <v>2020</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>14385</v>
+        <v>13898</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01560378399869873</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.005402383887741857</v>
+        <v>0.005426341611506695</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.03864155598973772</v>
+        <v>0.03733217903966437</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>8</v>
@@ -4525,19 +4525,19 @@
         <v>9570</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>4140</v>
+        <v>4092</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>19294</v>
+        <v>20197</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01276881869841557</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.005524233662867833</v>
+        <v>0.005459043845462652</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.02574209743707904</v>
+        <v>0.02694794616061779</v>
       </c>
     </row>
     <row r="8">
@@ -4554,19 +4554,19 @@
         <v>373466</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>363135</v>
+        <v>365814</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>376326</v>
+        <v>376315</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9900289179753641</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.962642659968298</v>
+        <v>0.9697446109207252</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9976121857467536</v>
+        <v>0.9975811506450671</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>347</v>
@@ -4575,19 +4575,19 @@
         <v>366464</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>357888</v>
+        <v>358375</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>370262</v>
+        <v>370253</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9843962160013012</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9613584440102622</v>
+        <v>0.9626678209603357</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9945976161122582</v>
+        <v>0.9945736583884933</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>698</v>
@@ -4596,19 +4596,19 @@
         <v>739930</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>730206</v>
+        <v>729303</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>745360</v>
+        <v>745408</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9872311813015844</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.974257902562922</v>
+        <v>0.9730520538393828</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9944757663371324</v>
+        <v>0.9945409561545374</v>
       </c>
     </row>
     <row r="9">
@@ -4700,19 +4700,19 @@
         <v>3842</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>997</v>
+        <v>1004</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>9759</v>
+        <v>8808</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.007361920978366754</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.001910196587163616</v>
+        <v>0.001924036453839003</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.0186989602455516</v>
+        <v>0.01687721447676152</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>1</v>
@@ -4724,7 +4724,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>4596</v>
+        <v>5014</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.005905396890545957</v>
@@ -4733,7 +4733,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.02766542132576383</v>
+        <v>0.03018226576692724</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>5</v>
@@ -4742,19 +4742,19 @@
         <v>4823</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1895</v>
+        <v>1811</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>11065</v>
+        <v>10364</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.007010250874295759</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.002754502955422893</v>
+        <v>0.002631709505963427</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01608256671432089</v>
+        <v>0.01506303424805431</v>
       </c>
     </row>
     <row r="11">
@@ -4771,19 +4771,19 @@
         <v>518072</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>512155</v>
+        <v>513106</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>520917</v>
+        <v>520910</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9926380790216333</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9813010397544484</v>
+        <v>0.9831227855232384</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9980898034128364</v>
+        <v>0.998075963546161</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>152</v>
@@ -4792,7 +4792,7 @@
         <v>165142</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>161527</v>
+        <v>161109</v>
       </c>
       <c r="M11" s="5" t="n">
         <v>166123</v>
@@ -4801,7 +4801,7 @@
         <v>0.9940946031094541</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9723345786742361</v>
+        <v>0.9698177342330727</v>
       </c>
       <c r="P11" s="6" t="n">
         <v>1</v>
@@ -4813,19 +4813,19 @@
         <v>683213</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>676971</v>
+        <v>677672</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>686141</v>
+        <v>686225</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9929897491257043</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9839174332856785</v>
+        <v>0.9849369657519459</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9972454970445771</v>
+        <v>0.9973682904940366</v>
       </c>
     </row>
     <row r="12">
@@ -4917,19 +4917,19 @@
         <v>6766</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>2788</v>
+        <v>2861</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>13644</v>
+        <v>13066</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.005885087085105057</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.002424864576733078</v>
+        <v>0.002488543445938096</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.01186773961906024</v>
+        <v>0.01136564667727837</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>12</v>
@@ -4938,19 +4938,19 @@
         <v>12125</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>6765</v>
+        <v>6307</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>20910</v>
+        <v>20260</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01468132081733598</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.008191228376712989</v>
+        <v>0.007636561958500362</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.02531856863194656</v>
+        <v>0.02453126509921885</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>19</v>
@@ -4959,19 +4959,19 @@
         <v>18891</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>12001</v>
+        <v>11732</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>29759</v>
+        <v>28525</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.009562406628805815</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.006074681760998189</v>
+        <v>0.00593894797344468</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.01506387250813744</v>
+        <v>0.01443927220509595</v>
       </c>
     </row>
     <row r="14">
@@ -4988,19 +4988,19 @@
         <v>1142872</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1135994</v>
+        <v>1136572</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1146850</v>
+        <v>1146777</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.994114912914895</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9881322603809397</v>
+        <v>0.9886343533227216</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9975751354232669</v>
+        <v>0.9975114565540619</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>786</v>
@@ -5009,19 +5009,19 @@
         <v>813751</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>804966</v>
+        <v>805616</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>819111</v>
+        <v>819569</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.985318679182664</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9746814313680534</v>
+        <v>0.9754687349007811</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.991808771623287</v>
+        <v>0.9923634380414992</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1882</v>
@@ -5030,19 +5030,19 @@
         <v>1956623</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1945755</v>
+        <v>1946989</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1963513</v>
+        <v>1963782</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9904375933711942</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9849361274918625</v>
+        <v>0.9855607277949043</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9939253182390019</v>
+        <v>0.9940610520265555</v>
       </c>
     </row>
     <row r="15">
@@ -5134,19 +5134,19 @@
         <v>11273</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>5983</v>
+        <v>5690</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>20347</v>
+        <v>20233</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01816164249947223</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.009638427159560382</v>
+        <v>0.009167722469924216</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03278005351235833</v>
+        <v>0.03259662475353181</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>18</v>
@@ -5155,19 +5155,19 @@
         <v>20451</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>11675</v>
+        <v>12991</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>32554</v>
+        <v>33244</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.02770227518612824</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01581490115296874</v>
+        <v>0.01759765587328821</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.04409676126989614</v>
+        <v>0.04503173422447278</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>28</v>
@@ -5176,19 +5176,19 @@
         <v>31724</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>21630</v>
+        <v>21568</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>46772</v>
+        <v>44669</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02334455284925635</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01591666419491545</v>
+        <v>0.01587120363078079</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.03441762616952619</v>
+        <v>0.03287054988843915</v>
       </c>
     </row>
     <row r="17">
@@ -5205,19 +5205,19 @@
         <v>609433</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>600359</v>
+        <v>600473</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>614723</v>
+        <v>615016</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9818383575005277</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9672199464876419</v>
+        <v>0.9674033752464699</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9903615728404399</v>
+        <v>0.9908322775300759</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>681</v>
@@ -5226,19 +5226,19 @@
         <v>717793</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>705690</v>
+        <v>705000</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>726569</v>
+        <v>725253</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9722977248138718</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9559032387301043</v>
+        <v>0.9549682657755272</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9841850988470313</v>
+        <v>0.9824023441267118</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1268</v>
@@ -5247,19 +5247,19 @@
         <v>1327226</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1312178</v>
+        <v>1314281</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1337320</v>
+        <v>1337382</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9766554471507437</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9655823738304739</v>
+        <v>0.9671294501115608</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9840833358050846</v>
+        <v>0.9841287963692192</v>
       </c>
     </row>
     <row r="18">
@@ -5351,19 +5351,19 @@
         <v>5173</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>1905</v>
+        <v>1877</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>11329</v>
+        <v>10888</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.01801495010262432</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.006633201728139621</v>
+        <v>0.00653662217598387</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.03945287223607291</v>
+        <v>0.0379180904540897</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>13</v>
@@ -5372,19 +5372,19 @@
         <v>14710</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>7979</v>
+        <v>7981</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>25913</v>
+        <v>24469</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.01359477835329972</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.007374297701703589</v>
+        <v>0.007376084879694658</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.02394851118889284</v>
+        <v>0.02261428677244689</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>18</v>
@@ -5393,19 +5393,19 @@
         <v>19883</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>11816</v>
+        <v>12077</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>31253</v>
+        <v>30549</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.01452178586078465</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.008630387412728655</v>
+        <v>0.008820718021091646</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.02282616130250998</v>
+        <v>0.0223118510276645</v>
       </c>
     </row>
     <row r="20">
@@ -5422,19 +5422,19 @@
         <v>281972</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>275816</v>
+        <v>276257</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>285240</v>
+        <v>285268</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9819850498973757</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.960547127763927</v>
+        <v>0.9620819095459102</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9933667982718604</v>
+        <v>0.9934633778240161</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>979</v>
@@ -5443,19 +5443,19 @@
         <v>1067315</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1056112</v>
+        <v>1057556</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>1074046</v>
+        <v>1074044</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9864052216467003</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9760514888111071</v>
+        <v>0.9773857132275531</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9926257022982965</v>
+        <v>0.9926239151203053</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1246</v>
@@ -5464,19 +5464,19 @@
         <v>1349287</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1337917</v>
+        <v>1338621</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1357354</v>
+        <v>1357093</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9854782141392153</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9771738386974902</v>
+        <v>0.9776881489723361</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9913696125872714</v>
+        <v>0.9911792819789087</v>
       </c>
     </row>
     <row r="21">
@@ -5568,19 +5568,19 @@
         <v>31901</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>21495</v>
+        <v>21724</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>44285</v>
+        <v>44502</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.009422337490552671</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.006348662953763408</v>
+        <v>0.00641647666304349</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.0130800308570585</v>
+        <v>0.01314407820972222</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>52</v>
@@ -5589,19 +5589,19 @@
         <v>57288</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>43101</v>
+        <v>44041</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>73752</v>
+        <v>73602</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.0162216986735202</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.01220452459473974</v>
+        <v>0.01247050912906788</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.02088343035445392</v>
+        <v>0.02084113627963297</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>82</v>
@@ -5610,19 +5610,19 @@
         <v>89190</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>72293</v>
+        <v>70771</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>113276</v>
+        <v>108775</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.01289371118334021</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.01045096502355048</v>
+        <v>0.01023094559119693</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.01637569127846828</v>
+        <v>0.01572504971311154</v>
       </c>
     </row>
     <row r="23">
@@ -5639,19 +5639,19 @@
         <v>3353821</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3341437</v>
+        <v>3341220</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3364227</v>
+        <v>3363998</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9905776625094473</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9869199691429414</v>
+        <v>0.9868559217902778</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9936513370462365</v>
+        <v>0.9935835233369565</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>3274</v>
@@ -5660,19 +5660,19 @@
         <v>3474308</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>3457844</v>
+        <v>3457994</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>3488495</v>
+        <v>3487555</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9837783013264798</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9791165696455458</v>
+        <v>0.9791588637203669</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9877954754052602</v>
+        <v>0.987529490870932</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>6468</v>
@@ -5681,19 +5681,19 @@
         <v>6828128</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>6804042</v>
+        <v>6808543</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>6845025</v>
+        <v>6846547</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9871062888166597</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9836243087215317</v>
+        <v>0.9842749502868885</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9895490349764495</v>
+        <v>0.9897690544088031</v>
       </c>
     </row>
     <row r="24">
@@ -6027,19 +6027,19 @@
         <v>13209</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>7349</v>
+        <v>7334</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>23099</v>
+        <v>22372</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02398886482097215</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01334705888111902</v>
+        <v>0.01331913463902273</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.04195095446274425</v>
+        <v>0.04063029119944597</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>15</v>
@@ -6048,19 +6048,19 @@
         <v>12048</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>6913</v>
+        <v>6896</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>20979</v>
+        <v>21547</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02466684187524848</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01415348885076478</v>
+        <v>0.01411877904158604</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.04295366812731156</v>
+        <v>0.04411747268991405</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>29</v>
@@ -6069,19 +6069,19 @@
         <v>25256</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>17405</v>
+        <v>17176</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>37002</v>
+        <v>36501</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.02430755787496426</v>
+        <v>0.02430755787496425</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01675168267916778</v>
+        <v>0.01653039747054554</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.03561231939183501</v>
+        <v>0.03512993668672486</v>
       </c>
     </row>
     <row r="5">
@@ -6098,19 +6098,19 @@
         <v>537409</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>527519</v>
+        <v>528246</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>543269</v>
+        <v>543284</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.9760111351790279</v>
+        <v>0.9760111351790277</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9580490455372555</v>
+        <v>0.9593697088005539</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.986652941118881</v>
+        <v>0.9866808653609773</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>671</v>
@@ -6119,19 +6119,19 @@
         <v>476363</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>467432</v>
+        <v>466864</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>481498</v>
+        <v>481515</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9753331581247515</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9570463318726889</v>
+        <v>0.955882527310086</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9858465111492353</v>
+        <v>0.985881220958414</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1211</v>
@@ -6140,19 +6140,19 @@
         <v>1013773</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1002027</v>
+        <v>1002528</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1021624</v>
+        <v>1021853</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.9756924421250358</v>
+        <v>0.9756924421250357</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9643876806081649</v>
+        <v>0.9648700633132749</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9832483173208323</v>
+        <v>0.9834696025294544</v>
       </c>
     </row>
     <row r="6">
@@ -6244,19 +6244,19 @@
         <v>7856</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>3747</v>
+        <v>3410</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>15509</v>
+        <v>15426</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01625726554813176</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.007753894611767964</v>
+        <v>0.007056579970958874</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.03209513736452548</v>
+        <v>0.03192406848043933</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>16</v>
@@ -6265,19 +6265,19 @@
         <v>10472</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>6357</v>
+        <v>6000</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>16551</v>
+        <v>16066</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.02474729766912112</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.0150240605168298</v>
+        <v>0.01418068676324739</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.03911404180138524</v>
+        <v>0.03796797661513088</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>24</v>
@@ -6286,19 +6286,19 @@
         <v>18327</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>11882</v>
+        <v>11248</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>26420</v>
+        <v>26552</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.02022094028830661</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01310932680907574</v>
+        <v>0.01240997330792277</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.02914985169418211</v>
+        <v>0.02929522247749297</v>
       </c>
     </row>
     <row r="8">
@@ -6315,19 +6315,19 @@
         <v>475356</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>467703</v>
+        <v>467786</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>479465</v>
+        <v>479802</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.9837427344518682</v>
+        <v>0.9837427344518681</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9679048626354745</v>
+        <v>0.9680759315195607</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9922461053882321</v>
+        <v>0.992943420029041</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>574</v>
@@ -6336,19 +6336,19 @@
         <v>412671</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>406592</v>
+        <v>407077</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>416786</v>
+        <v>417143</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.9752527023308789</v>
+        <v>0.9752527023308788</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.960885958198615</v>
+        <v>0.9620320233848692</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9849759394831703</v>
+        <v>0.9858193132367526</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1047</v>
@@ -6357,19 +6357,19 @@
         <v>888028</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>879935</v>
+        <v>879803</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>894473</v>
+        <v>895107</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9797790597116934</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9708501483058177</v>
+        <v>0.9707047775225062</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9868906731909242</v>
+        <v>0.9875900266920747</v>
       </c>
     </row>
     <row r="9">
@@ -6461,19 +6461,19 @@
         <v>8599</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>4271</v>
+        <v>4152</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>15318</v>
+        <v>15057</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.01823341309560599</v>
+        <v>0.01823341309560598</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.009056251452686858</v>
+        <v>0.008804402649555907</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.03247975134986104</v>
+        <v>0.03192592902883725</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>5</v>
@@ -6482,19 +6482,19 @@
         <v>3433</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>1311</v>
+        <v>1286</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>7165</v>
+        <v>7122</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01830717033318002</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.00699422543157239</v>
+        <v>0.006858282802817008</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.03821578429350742</v>
+        <v>0.03798309524605942</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>15</v>
@@ -6503,19 +6503,19 @@
         <v>12032</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>7375</v>
+        <v>6642</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>20309</v>
+        <v>18994</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.0182543948782714</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01118989263597508</v>
+        <v>0.01007660660182249</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.03081313931057136</v>
+        <v>0.02881747243764453</v>
       </c>
     </row>
     <row r="11">
@@ -6532,19 +6532,19 @@
         <v>463013</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>456294</v>
+        <v>456555</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>467341</v>
+        <v>467460</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.981766586904394</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.967520248650139</v>
+        <v>0.9680740709711626</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.990943748547313</v>
+        <v>0.9911955973504442</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>284</v>
@@ -6553,19 +6553,19 @@
         <v>184064</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>180332</v>
+        <v>180375</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>186186</v>
+        <v>186211</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.9816928296668199</v>
+        <v>0.98169282966682</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9617842157064924</v>
+        <v>0.962016904753941</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9930057745684275</v>
+        <v>0.993141717197183</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>762</v>
@@ -6574,19 +6574,19 @@
         <v>647077</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>638800</v>
+        <v>640115</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>651734</v>
+        <v>652467</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9817456051217287</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9691868606894288</v>
+        <v>0.9711825275623556</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.988810107364025</v>
+        <v>0.9899233933981774</v>
       </c>
     </row>
     <row r="12">
@@ -6678,19 +6678,19 @@
         <v>21780</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>13944</v>
+        <v>14091</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>32759</v>
+        <v>31740</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01924337365124762</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01231931367681362</v>
+        <v>0.01244991223251534</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.02894347028333562</v>
+        <v>0.02804263750052286</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>30</v>
@@ -6699,19 +6699,19 @@
         <v>21581</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>14560</v>
+        <v>14470</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>32429</v>
+        <v>30938</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.02505833873411575</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01690699227717275</v>
+        <v>0.01680194143635768</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.03765476338669638</v>
+        <v>0.03592335090480991</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>55</v>
@@ -6720,19 +6720,19 @@
         <v>43361</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>32950</v>
+        <v>33010</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>56294</v>
+        <v>56599</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.02175605711152161</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01653224555102225</v>
+        <v>0.01656236739393477</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.02824518606056007</v>
+        <v>0.02839788183678252</v>
       </c>
     </row>
     <row r="14">
@@ -6749,19 +6749,19 @@
         <v>1110063</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1099084</v>
+        <v>1100103</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1117899</v>
+        <v>1117752</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9807566263487524</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9710565297166641</v>
+        <v>0.971957362499477</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9876806863231858</v>
+        <v>0.9875500877674844</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1200</v>
@@ -6770,19 +6770,19 @@
         <v>839630</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>828782</v>
+        <v>830273</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>846651</v>
+        <v>846741</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9749416612658843</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9623452366133038</v>
+        <v>0.9640766490951908</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9830930077228278</v>
+        <v>0.9831980585636424</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2293</v>
@@ -6791,19 +6791,19 @@
         <v>1949693</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1936760</v>
+        <v>1936455</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1960104</v>
+        <v>1960044</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9782439428884783</v>
+        <v>0.9782439428884786</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9717548139394399</v>
+        <v>0.9716021181632174</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9834677544489776</v>
+        <v>0.9834376326060654</v>
       </c>
     </row>
     <row r="15">
@@ -6895,19 +6895,19 @@
         <v>14698</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>8651</v>
+        <v>8963</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>23519</v>
+        <v>24876</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.02587913019421117</v>
+        <v>0.02587913019421116</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01523137118769222</v>
+        <v>0.01578100261607252</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.04140988449903395</v>
+        <v>0.04379806397801334</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>43</v>
@@ -6916,19 +6916,19 @@
         <v>24720</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>17896</v>
+        <v>17735</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>32968</v>
+        <v>33150</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.02975209153612702</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.02153881120615548</v>
+        <v>0.02134512587930835</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.03968039879150338</v>
+        <v>0.03989928537554068</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>58</v>
@@ -6937,19 +6937,19 @@
         <v>39418</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>29910</v>
+        <v>29799</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>52378</v>
+        <v>52046</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02817954390012919</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.02138258987818054</v>
+        <v>0.02130271667918214</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.03744461187324873</v>
+        <v>0.03720727735291385</v>
       </c>
     </row>
     <row r="17">
@@ -6966,19 +6966,19 @@
         <v>553266</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>544445</v>
+        <v>543088</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>559313</v>
+        <v>559001</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.9741208698057889</v>
+        <v>0.9741208698057887</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9585901155009664</v>
+        <v>0.956201936021987</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.984768628812308</v>
+        <v>0.9842189973839275</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1247</v>
@@ -6987,19 +6987,19 @@
         <v>806130</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>797882</v>
+        <v>797700</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>812954</v>
+        <v>813115</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9702479084638729</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9603196012084968</v>
+        <v>0.9601007146244593</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9784611887938445</v>
+        <v>0.9786548741206917</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1779</v>
@@ -7008,19 +7008,19 @@
         <v>1359396</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1346436</v>
+        <v>1346768</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1368904</v>
+        <v>1369015</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.9718204560998708</v>
+        <v>0.9718204560998707</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9625553881267511</v>
+        <v>0.9627927226470864</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9786174101218195</v>
+        <v>0.978697283320818</v>
       </c>
     </row>
     <row r="18">
@@ -7112,19 +7112,19 @@
         <v>10930</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>5066</v>
+        <v>4569</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>22698</v>
+        <v>22192</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.04607455874057695</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.0213569446880262</v>
+        <v>0.01926032981853819</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.095681086424926</v>
+        <v>0.09354892686279177</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>42</v>
@@ -7133,19 +7133,19 @@
         <v>30938</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>21971</v>
+        <v>22237</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>43542</v>
+        <v>42520</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.0366437143711433</v>
+        <v>0.03664371437114331</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.02602366999134623</v>
+        <v>0.02633843796041827</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.0515733269126522</v>
+        <v>0.05036208478810991</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>50</v>
@@ -7154,19 +7154,19 @@
         <v>41868</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>29992</v>
+        <v>29816</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>55390</v>
+        <v>56738</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.03871235967859554</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.02773126118270245</v>
+        <v>0.02756850002045198</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.05121550595316041</v>
+        <v>0.05246151664961442</v>
       </c>
     </row>
     <row r="20">
@@ -7183,19 +7183,19 @@
         <v>226298</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>214530</v>
+        <v>215036</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>232162</v>
+        <v>232659</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.9539254412594231</v>
+        <v>0.953925441259423</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9043189135750742</v>
+        <v>0.9064510731372083</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9786430553119738</v>
+        <v>0.9807396701814618</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>1117</v>
@@ -7204,19 +7204,19 @@
         <v>813343</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>800739</v>
+        <v>801761</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>822310</v>
+        <v>822044</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.9633562856288567</v>
+        <v>0.9633562856288569</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9484266730873486</v>
+        <v>0.9496379152118901</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9739763300086552</v>
+        <v>0.9736615620395819</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1221</v>
@@ -7225,19 +7225,19 @@
         <v>1039641</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1026119</v>
+        <v>1024771</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1051517</v>
+        <v>1051693</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9612876403214046</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9487844940468395</v>
+        <v>0.9475384833503855</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9722687388172976</v>
+        <v>0.9724314999795479</v>
       </c>
     </row>
     <row r="21">
@@ -7329,19 +7329,19 @@
         <v>77073</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>62034</v>
+        <v>60157</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>96026</v>
+        <v>97094</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.02238869411082609</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.0180202781148761</v>
+        <v>0.01747485488477565</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.02789439772463551</v>
+        <v>0.02820464838001888</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>151</v>
@@ -7350,19 +7350,19 @@
         <v>103189</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>87874</v>
+        <v>87324</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>121573</v>
+        <v>123338</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.02838465403407303</v>
+        <v>0.02838465403407302</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.02417182073312458</v>
+        <v>0.02402056176299521</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.03344137093013175</v>
+        <v>0.03392687912148985</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>231</v>
@@ -7371,19 +7371,19 @@
         <v>180262</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>156636</v>
+        <v>158427</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>206325</v>
+        <v>208632</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.02546838819251874</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.02213034919954705</v>
+        <v>0.02238347352417468</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.02915069830506546</v>
+        <v>0.02947670719628619</v>
       </c>
     </row>
     <row r="23">
@@ -7400,19 +7400,19 @@
         <v>3365403</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3346450</v>
+        <v>3345382</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3380442</v>
+        <v>3382319</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.977611305889174</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9721056022753647</v>
+        <v>0.9717953516199808</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9819797218851239</v>
+        <v>0.9825251451152237</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>5093</v>
@@ -7421,19 +7421,19 @@
         <v>3532204</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>3513820</v>
+        <v>3512055</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>3547519</v>
+        <v>3548069</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.9716153459659271</v>
+        <v>0.971615345965927</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9665586290698682</v>
+        <v>0.9660731208785105</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9758281792668755</v>
+        <v>0.9759794382370047</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>8313</v>
@@ -7442,19 +7442,19 @@
         <v>6897607</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>6871544</v>
+        <v>6869237</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>6921233</v>
+        <v>6919442</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.9745316118074813</v>
+        <v>0.9745316118074814</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9708493016949344</v>
+        <v>0.9705232928037137</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9778696508004531</v>
+        <v>0.9776165264758254</v>
       </c>
     </row>
     <row r="24">
